--- a/src/output/results2.xlsx
+++ b/src/output/results2.xlsx
@@ -346,2922 +346,2922 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>5232.0</v>
+        <v>2938.0</v>
       </c>
       <c r="B1" t="n">
-        <v>1242.0</v>
+        <v>1132.0</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5243.0</v>
+        <v>3571.0</v>
       </c>
       <c r="B2" t="n">
-        <v>1218.0</v>
+        <v>1162.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4541.0</v>
+        <v>3267.0</v>
       </c>
       <c r="B3" t="n">
-        <v>1397.0</v>
+        <v>1136.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3974.0</v>
+        <v>2995.0</v>
       </c>
       <c r="B4" t="n">
-        <v>1974.0</v>
+        <v>1191.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3606.0</v>
+        <v>2762.0</v>
       </c>
       <c r="B5" t="n">
-        <v>2011.0</v>
+        <v>1257.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3529.0</v>
+        <v>3505.0</v>
       </c>
       <c r="B6" t="n">
-        <v>1832.0</v>
+        <v>1291.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3202.0</v>
+        <v>3042.0</v>
       </c>
       <c r="B7" t="n">
-        <v>1637.0</v>
+        <v>1104.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3001.0</v>
+        <v>2502.0</v>
       </c>
       <c r="B8" t="n">
-        <v>1552.0</v>
+        <v>1127.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2963.0</v>
+        <v>2486.0</v>
       </c>
       <c r="B9" t="n">
-        <v>1448.0</v>
+        <v>1256.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2887.0</v>
+        <v>2427.0</v>
       </c>
       <c r="B10" t="n">
-        <v>1457.0</v>
+        <v>1162.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2764.0</v>
+        <v>2297.0</v>
       </c>
       <c r="B11" t="n">
-        <v>1330.0</v>
+        <v>1047.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2770.0</v>
+        <v>2427.0</v>
       </c>
       <c r="B12" t="n">
-        <v>1273.0</v>
+        <v>1019.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2875.0</v>
+        <v>2758.0</v>
       </c>
       <c r="B13" t="n">
-        <v>1303.0</v>
+        <v>1005.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2783.0</v>
+        <v>2596.0</v>
       </c>
       <c r="B14" t="n">
-        <v>1264.0</v>
+        <v>1012.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2643.0</v>
+        <v>2296.0</v>
       </c>
       <c r="B15" t="n">
-        <v>1194.0</v>
+        <v>934.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2702.0</v>
+        <v>2270.0</v>
       </c>
       <c r="B16" t="n">
-        <v>1205.0</v>
+        <v>1033.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2742.0</v>
+        <v>2317.0</v>
       </c>
       <c r="B17" t="n">
-        <v>1152.0</v>
+        <v>1011.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2525.0</v>
+        <v>2243.0</v>
       </c>
       <c r="B18" t="n">
-        <v>1090.0</v>
+        <v>937.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2721.0</v>
+        <v>2188.0</v>
       </c>
       <c r="B19" t="n">
-        <v>1162.0</v>
+        <v>910.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2541.0</v>
+        <v>2773.0</v>
       </c>
       <c r="B20" t="n">
-        <v>1153.0</v>
+        <v>884.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2565.0</v>
+        <v>2580.0</v>
       </c>
       <c r="B21" t="n">
-        <v>1096.0</v>
+        <v>879.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2605.0</v>
+        <v>2215.0</v>
       </c>
       <c r="B22" t="n">
-        <v>1109.0</v>
+        <v>945.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2546.0</v>
+        <v>2266.0</v>
       </c>
       <c r="B23" t="n">
-        <v>1115.0</v>
+        <v>987.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2558.0</v>
+        <v>2243.0</v>
       </c>
       <c r="B24" t="n">
-        <v>1074.0</v>
+        <v>926.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2526.0</v>
+        <v>2224.0</v>
       </c>
       <c r="B25" t="n">
-        <v>1063.0</v>
+        <v>944.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2559.0</v>
+        <v>2294.0</v>
       </c>
       <c r="B26" t="n">
-        <v>1039.0</v>
+        <v>972.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>2527.0</v>
+        <v>2780.0</v>
       </c>
       <c r="B27" t="n">
-        <v>1061.0</v>
+        <v>957.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>2536.0</v>
+        <v>2722.0</v>
       </c>
       <c r="B28" t="n">
-        <v>1071.0</v>
+        <v>867.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>2627.0</v>
+        <v>2358.0</v>
       </c>
       <c r="B29" t="n">
-        <v>1105.0</v>
+        <v>1006.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>2528.0</v>
+        <v>2317.0</v>
       </c>
       <c r="B30" t="n">
-        <v>1052.0</v>
+        <v>986.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>2546.0</v>
+        <v>2219.0</v>
       </c>
       <c r="B31" t="n">
-        <v>1106.0</v>
+        <v>929.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>3397.0</v>
+        <v>3253.0</v>
       </c>
       <c r="B32" t="n">
-        <v>1108.0</v>
+        <v>994.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>3150.0</v>
+        <v>3114.0</v>
       </c>
       <c r="B33" t="n">
-        <v>1098.0</v>
+        <v>981.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>3057.0</v>
+        <v>3308.0</v>
       </c>
       <c r="B34" t="n">
-        <v>1183.0</v>
+        <v>1051.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>3108.0</v>
+        <v>3362.0</v>
       </c>
       <c r="B35" t="n">
-        <v>1361.0</v>
+        <v>1203.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>4158.0</v>
+        <v>4363.0</v>
       </c>
       <c r="B36" t="n">
-        <v>1374.0</v>
+        <v>1265.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>4235.0</v>
+        <v>4187.0</v>
       </c>
       <c r="B37" t="n">
-        <v>1302.0</v>
+        <v>1300.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>4487.0</v>
+        <v>4860.0</v>
       </c>
       <c r="B38" t="n">
-        <v>1525.0</v>
+        <v>1479.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>5150.0</v>
+        <v>5402.0</v>
       </c>
       <c r="B39" t="n">
-        <v>1763.0</v>
+        <v>1732.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>5537.0</v>
+        <v>5822.0</v>
       </c>
       <c r="B40" t="n">
-        <v>1814.0</v>
+        <v>1865.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>4973.0</v>
+        <v>6233.0</v>
       </c>
       <c r="B41" t="n">
-        <v>1923.0</v>
+        <v>2163.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>4944.0</v>
+        <v>6342.0</v>
       </c>
       <c r="B42" t="n">
-        <v>2234.0</v>
+        <v>2376.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>6847.0</v>
+        <v>7133.0</v>
       </c>
       <c r="B43" t="n">
-        <v>2297.0</v>
+        <v>2495.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>6368.0</v>
+        <v>6832.0</v>
       </c>
       <c r="B44" t="n">
-        <v>2281.0</v>
+        <v>2589.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>6927.0</v>
+        <v>7646.0</v>
       </c>
       <c r="B45" t="n">
-        <v>2481.0</v>
+        <v>2860.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>7619.0</v>
+        <v>8400.0</v>
       </c>
       <c r="B46" t="n">
-        <v>2792.0</v>
+        <v>3034.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>8147.0</v>
+        <v>8938.0</v>
       </c>
       <c r="B47" t="n">
-        <v>2890.0</v>
+        <v>3168.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>7099.0</v>
+        <v>9751.0</v>
       </c>
       <c r="B48" t="n">
-        <v>3016.0</v>
+        <v>3574.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>6954.0</v>
+        <v>9850.0</v>
       </c>
       <c r="B49" t="n">
-        <v>3511.0</v>
+        <v>3752.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>9713.0</v>
+        <v>10644.0</v>
       </c>
       <c r="B50" t="n">
-        <v>3491.0</v>
+        <v>3883.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>8663.0</v>
+        <v>9812.0</v>
       </c>
       <c r="B51" t="n">
-        <v>3299.0</v>
+        <v>4097.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>9463.0</v>
+        <v>10640.0</v>
       </c>
       <c r="B52" t="n">
-        <v>3642.0</v>
+        <v>4256.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>10246.0</v>
+        <v>11609.0</v>
       </c>
       <c r="B53" t="n">
-        <v>3909.0</v>
+        <v>4453.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>10894.0</v>
+        <v>12300.0</v>
       </c>
       <c r="B54" t="n">
-        <v>4002.0</v>
+        <v>4627.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>9604.0</v>
+        <v>13075.0</v>
       </c>
       <c r="B55" t="n">
-        <v>4108.0</v>
+        <v>4879.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>8973.0</v>
+        <v>13462.0</v>
       </c>
       <c r="B56" t="n">
-        <v>4585.0</v>
+        <v>5207.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>12757.0</v>
+        <v>14135.0</v>
       </c>
       <c r="B57" t="n">
-        <v>4849.0</v>
+        <v>5396.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>11305.0</v>
+        <v>12927.0</v>
       </c>
       <c r="B58" t="n">
-        <v>4660.0</v>
+        <v>5518.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>11815.0</v>
+        <v>13854.0</v>
       </c>
       <c r="B59" t="n">
-        <v>4628.0</v>
+        <v>5865.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>13073.0</v>
+        <v>14881.0</v>
       </c>
       <c r="B60" t="n">
-        <v>5093.0</v>
+        <v>6087.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>13504.0</v>
+        <v>15646.0</v>
       </c>
       <c r="B61" t="n">
-        <v>5164.0</v>
+        <v>6057.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>11714.0</v>
+        <v>16462.0</v>
       </c>
       <c r="B62" t="n">
-        <v>5390.0</v>
+        <v>6392.0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>11248.0</v>
+        <v>17111.0</v>
       </c>
       <c r="B63" t="n">
-        <v>5961.0</v>
+        <v>6750.0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>15289.0</v>
+        <v>17440.0</v>
       </c>
       <c r="B64" t="n">
-        <v>5908.0</v>
+        <v>6797.0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>13425.0</v>
+        <v>15926.0</v>
       </c>
       <c r="B65" t="n">
-        <v>5710.0</v>
+        <v>6992.0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>14043.0</v>
+        <v>16983.0</v>
       </c>
       <c r="B66" t="n">
-        <v>5947.0</v>
+        <v>7392.0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>15358.0</v>
+        <v>18062.0</v>
       </c>
       <c r="B67" t="n">
-        <v>6198.0</v>
+        <v>7497.0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>15918.0</v>
+        <v>18689.0</v>
       </c>
       <c r="B68" t="n">
-        <v>6364.0</v>
+        <v>7391.0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>13884.0</v>
+        <v>19789.0</v>
       </c>
       <c r="B69" t="n">
-        <v>6382.0</v>
+        <v>7570.0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>12666.0</v>
+        <v>19875.0</v>
       </c>
       <c r="B70" t="n">
-        <v>6967.0</v>
+        <v>8233.0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>17428.0</v>
+        <v>19720.0</v>
       </c>
       <c r="B71" t="n">
-        <v>7024.0</v>
+        <v>8291.0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>15242.0</v>
+        <v>18057.0</v>
       </c>
       <c r="B72" t="n">
-        <v>6482.0</v>
+        <v>8254.0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>15695.0</v>
+        <v>18700.0</v>
       </c>
       <c r="B73" t="n">
-        <v>6756.0</v>
+        <v>8537.0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>16793.0</v>
+        <v>19634.0</v>
       </c>
       <c r="B74" t="n">
-        <v>7000.0</v>
+        <v>8531.0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>17443.0</v>
+        <v>20199.0</v>
       </c>
       <c r="B75" t="n">
-        <v>6924.0</v>
+        <v>8335.0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>14736.0</v>
+        <v>21450.0</v>
       </c>
       <c r="B76" t="n">
-        <v>7062.0</v>
+        <v>8642.0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>13626.0</v>
+        <v>21657.0</v>
       </c>
       <c r="B77" t="n">
-        <v>7511.0</v>
+        <v>8744.0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>18723.0</v>
+        <v>20786.0</v>
       </c>
       <c r="B78" t="n">
-        <v>7723.0</v>
+        <v>8974.0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>16315.0</v>
+        <v>18799.0</v>
       </c>
       <c r="B79" t="n">
-        <v>7245.0</v>
+        <v>8822.0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>16633.0</v>
+        <v>19440.0</v>
       </c>
       <c r="B80" t="n">
-        <v>7302.0</v>
+        <v>9174.0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>17413.0</v>
+        <v>20086.0</v>
       </c>
       <c r="B81" t="n">
-        <v>7605.0</v>
+        <v>8944.0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>18106.0</v>
+        <v>20326.0</v>
       </c>
       <c r="B82" t="n">
-        <v>7543.0</v>
+        <v>8786.0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>15188.0</v>
+        <v>21991.0</v>
       </c>
       <c r="B83" t="n">
-        <v>7407.0</v>
+        <v>8923.0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>13873.0</v>
+        <v>21793.0</v>
       </c>
       <c r="B84" t="n">
-        <v>8040.0</v>
+        <v>9144.0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>18786.0</v>
+        <v>20676.0</v>
       </c>
       <c r="B85" t="n">
-        <v>8006.0</v>
+        <v>9176.0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>16324.0</v>
+        <v>18911.0</v>
       </c>
       <c r="B86" t="n">
-        <v>7553.0</v>
+        <v>9118.0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>16487.0</v>
+        <v>19256.0</v>
       </c>
       <c r="B87" t="n">
-        <v>7334.0</v>
+        <v>9168.0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>17255.0</v>
+        <v>19754.0</v>
       </c>
       <c r="B88" t="n">
-        <v>7734.0</v>
+        <v>8944.0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>17558.0</v>
+        <v>19996.0</v>
       </c>
       <c r="B89" t="n">
-        <v>7424.0</v>
+        <v>8807.0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>14978.0</v>
+        <v>21009.0</v>
       </c>
       <c r="B90" t="n">
-        <v>7259.0</v>
+        <v>8896.0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>13379.0</v>
+        <v>21523.0</v>
       </c>
       <c r="B91" t="n">
-        <v>7895.0</v>
+        <v>8762.0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>18179.0</v>
+        <v>20118.0</v>
       </c>
       <c r="B92" t="n">
-        <v>7895.0</v>
+        <v>8759.0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>16276.0</v>
+        <v>18051.0</v>
       </c>
       <c r="B93" t="n">
-        <v>7336.0</v>
+        <v>8906.0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>16206.0</v>
+        <v>18516.0</v>
       </c>
       <c r="B94" t="n">
-        <v>7331.0</v>
+        <v>9041.0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>16872.0</v>
+        <v>18987.0</v>
       </c>
       <c r="B95" t="n">
-        <v>7657.0</v>
+        <v>8722.0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>17366.0</v>
+        <v>19431.0</v>
       </c>
       <c r="B96" t="n">
-        <v>7264.0</v>
+        <v>8245.0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>12022.0</v>
+        <v>20408.0</v>
       </c>
       <c r="B97" t="n">
-        <v>7350.0</v>
+        <v>8300.0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>12836.0</v>
+        <v>19512.0</v>
       </c>
       <c r="B98" t="n">
-        <v>7671.0</v>
+        <v>8483.0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>13780.0</v>
+        <v>14387.0</v>
       </c>
       <c r="B99" t="n">
-        <v>7604.0</v>
+        <v>8423.0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>12096.0</v>
+        <v>12794.0</v>
       </c>
       <c r="B100" t="n">
-        <v>6708.0</v>
+        <v>8257.0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>11264.0</v>
+        <v>12661.0</v>
       </c>
       <c r="B101" t="n">
-        <v>6595.0</v>
+        <v>7780.0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>11110.0</v>
+        <v>12331.0</v>
       </c>
       <c r="B102" t="n">
-        <v>6248.0</v>
+        <v>6521.0</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>10957.0</v>
+        <v>11800.0</v>
       </c>
       <c r="B103" t="n">
-        <v>5474.0</v>
+        <v>5917.0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>9411.0</v>
+        <v>14302.0</v>
       </c>
       <c r="B104" t="n">
-        <v>5099.0</v>
+        <v>5633.0</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>8495.0</v>
+        <v>12842.0</v>
       </c>
       <c r="B105" t="n">
-        <v>5112.0</v>
+        <v>5410.0</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>11518.0</v>
+        <v>12722.0</v>
       </c>
       <c r="B106" t="n">
-        <v>4999.0</v>
+        <v>5393.0</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>10387.0</v>
+        <v>11381.0</v>
       </c>
       <c r="B107" t="n">
-        <v>4762.0</v>
+        <v>5146.0</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>10592.0</v>
+        <v>11857.0</v>
       </c>
       <c r="B108" t="n">
-        <v>4645.0</v>
+        <v>5492.0</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>11437.0</v>
+        <v>12558.0</v>
       </c>
       <c r="B109" t="n">
-        <v>4802.0</v>
+        <v>5422.0</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>11804.0</v>
+        <v>12761.0</v>
       </c>
       <c r="B110" t="n">
-        <v>4748.0</v>
+        <v>5164.0</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>9923.0</v>
+        <v>13734.0</v>
       </c>
       <c r="B111" t="n">
-        <v>4827.0</v>
+        <v>5293.0</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>9275.0</v>
+        <v>13007.0</v>
       </c>
       <c r="B112" t="n">
-        <v>5361.0</v>
+        <v>5637.0</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>13515.0</v>
+        <v>13625.0</v>
       </c>
       <c r="B113" t="n">
-        <v>5356.0</v>
+        <v>5636.0</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>12113.0</v>
+        <v>12379.0</v>
       </c>
       <c r="B114" t="n">
-        <v>5045.0</v>
+        <v>5472.0</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>12726.0</v>
+        <v>13049.0</v>
       </c>
       <c r="B115" t="n">
-        <v>5254.0</v>
+        <v>5672.0</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>13392.0</v>
+        <v>13426.0</v>
       </c>
       <c r="B116" t="n">
-        <v>5406.0</v>
+        <v>5608.0</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>14095.0</v>
+        <v>14076.0</v>
       </c>
       <c r="B117" t="n">
-        <v>5441.0</v>
+        <v>5630.0</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>11957.0</v>
+        <v>14817.0</v>
       </c>
       <c r="B118" t="n">
-        <v>5712.0</v>
+        <v>5673.0</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>10969.0</v>
+        <v>14481.0</v>
       </c>
       <c r="B119" t="n">
-        <v>6219.0</v>
+        <v>5727.0</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>15808.0</v>
+        <v>14824.0</v>
       </c>
       <c r="B120" t="n">
-        <v>6337.0</v>
+        <v>6086.0</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>14436.0</v>
+        <v>13872.0</v>
       </c>
       <c r="B121" t="n">
-        <v>6198.0</v>
+        <v>6180.0</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>14959.0</v>
+        <v>14179.0</v>
       </c>
       <c r="B122" t="n">
-        <v>6318.0</v>
+        <v>6249.0</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>16278.0</v>
+        <v>14670.0</v>
       </c>
       <c r="B123" t="n">
-        <v>6508.0</v>
+        <v>6094.0</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>17256.0</v>
+        <v>15208.0</v>
       </c>
       <c r="B124" t="n">
-        <v>6432.0</v>
+        <v>6162.0</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>14917.0</v>
+        <v>15673.0</v>
       </c>
       <c r="B125" t="n">
-        <v>6881.0</v>
+        <v>6222.0</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>13519.0</v>
+        <v>15701.0</v>
       </c>
       <c r="B126" t="n">
-        <v>7545.0</v>
+        <v>6406.0</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>19005.0</v>
+        <v>16807.0</v>
       </c>
       <c r="B127" t="n">
-        <v>7836.0</v>
+        <v>6743.0</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>17418.0</v>
+        <v>15098.0</v>
       </c>
       <c r="B128" t="n">
-        <v>7445.0</v>
+        <v>6567.0</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>18579.0</v>
+        <v>15571.0</v>
       </c>
       <c r="B129" t="n">
-        <v>7664.0</v>
+        <v>6813.0</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>19365.0</v>
+        <v>16265.0</v>
       </c>
       <c r="B130" t="n">
-        <v>7877.0</v>
+        <v>6695.0</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>21095.0</v>
+        <v>17020.0</v>
       </c>
       <c r="B131" t="n">
-        <v>7964.0</v>
+        <v>6942.0</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>18426.0</v>
+        <v>17502.0</v>
       </c>
       <c r="B132" t="n">
-        <v>8669.0</v>
+        <v>6962.0</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>16639.0</v>
+        <v>17362.0</v>
       </c>
       <c r="B133" t="n">
-        <v>9191.0</v>
+        <v>7299.0</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>23192.0</v>
+        <v>18665.0</v>
       </c>
       <c r="B134" t="n">
-        <v>9520.0</v>
+        <v>7461.0</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>20938.0</v>
+        <v>16821.0</v>
       </c>
       <c r="B135" t="n">
-        <v>9239.0</v>
+        <v>7717.0</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>22306.0</v>
+        <v>17225.0</v>
       </c>
       <c r="B136" t="n">
-        <v>9403.0</v>
+        <v>7452.0</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>23669.0</v>
+        <v>18283.0</v>
       </c>
       <c r="B137" t="n">
-        <v>9712.0</v>
+        <v>7732.0</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>24979.0</v>
+        <v>18664.0</v>
       </c>
       <c r="B138" t="n">
-        <v>10041.0</v>
+        <v>7739.0</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>22045.0</v>
+        <v>19825.0</v>
       </c>
       <c r="B139" t="n">
-        <v>10728.0</v>
+        <v>7831.0</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>20255.0</v>
+        <v>19770.0</v>
       </c>
       <c r="B140" t="n">
-        <v>11317.0</v>
+        <v>8178.0</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>27190.0</v>
+        <v>20545.0</v>
       </c>
       <c r="B141" t="n">
-        <v>11398.0</v>
+        <v>8411.0</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>24157.0</v>
+        <v>18642.0</v>
       </c>
       <c r="B142" t="n">
-        <v>11105.0</v>
+        <v>8453.0</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>25636.0</v>
+        <v>18971.0</v>
       </c>
       <c r="B143" t="n">
-        <v>11140.0</v>
+        <v>8494.0</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>27074.0</v>
+        <v>19745.0</v>
       </c>
       <c r="B144" t="n">
-        <v>11021.0</v>
+        <v>8631.0</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>28469.0</v>
+        <v>20267.0</v>
       </c>
       <c r="B145" t="n">
-        <v>11775.0</v>
+        <v>8575.0</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>24657.0</v>
+        <v>21791.0</v>
       </c>
       <c r="B146" t="n">
-        <v>12424.0</v>
+        <v>8847.0</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>22043.0</v>
+        <v>21582.0</v>
       </c>
       <c r="B147" t="n">
-        <v>13040.0</v>
+        <v>9136.0</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>29974.0</v>
+        <v>21975.0</v>
       </c>
       <c r="B148" t="n">
-        <v>12877.0</v>
+        <v>9402.0</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>26463.0</v>
+        <v>20309.0</v>
       </c>
       <c r="B149" t="n">
-        <v>12493.0</v>
+        <v>9425.0</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>22280.0</v>
+        <v>15597.0</v>
       </c>
       <c r="B150" t="n">
-        <v>12480.0</v>
+        <v>9556.0</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>22600.0</v>
+        <v>15827.0</v>
       </c>
       <c r="B151" t="n">
-        <v>11742.0</v>
+        <v>9424.0</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>21897.0</v>
+        <v>15716.0</v>
       </c>
       <c r="B152" t="n">
-        <v>11205.0</v>
+        <v>8899.0</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>17544.0</v>
+        <v>20743.0</v>
       </c>
       <c r="B153" t="n">
-        <v>11422.0</v>
+        <v>8429.0</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>16977.0</v>
+        <v>17740.0</v>
       </c>
       <c r="B154" t="n">
-        <v>10906.0</v>
+        <v>8069.0</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>13826.0</v>
+        <v>15346.0</v>
       </c>
       <c r="B155" t="n">
-        <v>10269.0</v>
+        <v>7927.0</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>10937.0</v>
+        <v>12620.0</v>
       </c>
       <c r="B156" t="n">
-        <v>8879.0</v>
+        <v>7772.0</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>14667.0</v>
+        <v>14882.0</v>
       </c>
       <c r="B157" t="n">
-        <v>7406.0</v>
+        <v>6955.0</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>12403.0</v>
+        <v>13028.0</v>
       </c>
       <c r="B158" t="n">
-        <v>6740.0</v>
+        <v>6448.0</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>10590.0</v>
+        <v>10157.0</v>
       </c>
       <c r="B159" t="n">
-        <v>6287.0</v>
+        <v>6384.0</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>8914.0</v>
+        <v>11641.0</v>
       </c>
       <c r="B160" t="n">
-        <v>5976.0</v>
+        <v>6227.0</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>8991.0</v>
+        <v>11276.0</v>
       </c>
       <c r="B161" t="n">
-        <v>5778.0</v>
+        <v>5940.0</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>11603.0</v>
+        <v>11561.0</v>
       </c>
       <c r="B162" t="n">
-        <v>5855.0</v>
+        <v>5982.0</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>12089.0</v>
+        <v>13567.0</v>
       </c>
       <c r="B163" t="n">
-        <v>5722.0</v>
+        <v>5585.0</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>12166.0</v>
+        <v>13164.0</v>
       </c>
       <c r="B164" t="n">
-        <v>5179.0</v>
+        <v>5479.0</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>12618.0</v>
+        <v>13867.0</v>
       </c>
       <c r="B165" t="n">
-        <v>4773.0</v>
+        <v>5277.0</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>13514.0</v>
+        <v>14680.0</v>
       </c>
       <c r="B166" t="n">
-        <v>4845.0</v>
+        <v>5668.0</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>11991.0</v>
+        <v>17164.0</v>
       </c>
       <c r="B167" t="n">
-        <v>5581.0</v>
+        <v>6035.0</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>11549.0</v>
+        <v>16005.0</v>
       </c>
       <c r="B168" t="n">
-        <v>6111.0</v>
+        <v>6687.0</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>16599.0</v>
+        <v>17832.0</v>
       </c>
       <c r="B169" t="n">
-        <v>6222.0</v>
+        <v>7127.0</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>15146.0</v>
+        <v>16625.0</v>
       </c>
       <c r="B170" t="n">
-        <v>6312.0</v>
+        <v>7355.0</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>15922.0</v>
+        <v>17718.0</v>
       </c>
       <c r="B171" t="n">
-        <v>6387.0</v>
+        <v>7492.0</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>16907.0</v>
+        <v>18497.0</v>
       </c>
       <c r="B172" t="n">
-        <v>6205.0</v>
+        <v>7768.0</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>18743.0</v>
+        <v>19647.0</v>
       </c>
       <c r="B173" t="n">
-        <v>6797.0</v>
+        <v>8191.0</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>16641.0</v>
+        <v>22620.0</v>
       </c>
       <c r="B174" t="n">
-        <v>7751.0</v>
+        <v>8687.0</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>15545.0</v>
+        <v>22719.0</v>
       </c>
       <c r="B175" t="n">
-        <v>8316.0</v>
+        <v>9277.0</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>21588.0</v>
+        <v>22146.0</v>
       </c>
       <c r="B176" t="n">
-        <v>8478.0</v>
+        <v>9653.0</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>19994.0</v>
+        <v>21212.0</v>
       </c>
       <c r="B177" t="n">
-        <v>8466.0</v>
+        <v>10038.0</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>21176.0</v>
+        <v>22735.0</v>
       </c>
       <c r="B178" t="n">
-        <v>8531.0</v>
+        <v>10119.0</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>22410.0</v>
+        <v>24220.0</v>
       </c>
       <c r="B179" t="n">
-        <v>8535.0</v>
+        <v>10375.0</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>24188.0</v>
+        <v>25050.0</v>
       </c>
       <c r="B180" t="n">
-        <v>9257.0</v>
+        <v>11087.0</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>21733.0</v>
+        <v>28935.0</v>
       </c>
       <c r="B181" t="n">
-        <v>10156.0</v>
+        <v>11520.0</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>19978.0</v>
+        <v>29601.0</v>
       </c>
       <c r="B182" t="n">
-        <v>10857.0</v>
+        <v>12054.0</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>27367.0</v>
+        <v>27865.0</v>
       </c>
       <c r="B183" t="n">
-        <v>11004.0</v>
+        <v>12725.0</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>24753.0</v>
+        <v>26409.0</v>
       </c>
       <c r="B184" t="n">
-        <v>10871.0</v>
+        <v>13108.0</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>26042.0</v>
+        <v>27951.0</v>
       </c>
       <c r="B185" t="n">
-        <v>11024.0</v>
+        <v>12781.0</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>27176.0</v>
+        <v>28503.0</v>
       </c>
       <c r="B186" t="n">
-        <v>10945.0</v>
+        <v>13280.0</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>29725.0</v>
+        <v>30171.0</v>
       </c>
       <c r="B187" t="n">
-        <v>11338.0</v>
+        <v>13721.0</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>25972.0</v>
+        <v>34606.0</v>
       </c>
       <c r="B188" t="n">
-        <v>12802.0</v>
+        <v>14207.0</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>23766.0</v>
+        <v>35531.0</v>
       </c>
       <c r="B189" t="n">
-        <v>13447.0</v>
+        <v>14822.0</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>31450.0</v>
+        <v>31024.0</v>
       </c>
       <c r="B190" t="n">
-        <v>13299.0</v>
+        <v>15151.0</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>28199.0</v>
+        <v>28905.0</v>
       </c>
       <c r="B191" t="n">
-        <v>13005.0</v>
+        <v>15474.0</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>29643.0</v>
+        <v>30259.0</v>
       </c>
       <c r="B192" t="n">
-        <v>12931.0</v>
+        <v>15000.0</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>30729.0</v>
+        <v>31357.0</v>
       </c>
       <c r="B193" t="n">
-        <v>12755.0</v>
+        <v>14658.0</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>32636.0</v>
+        <v>31878.0</v>
       </c>
       <c r="B194" t="n">
-        <v>13203.0</v>
+        <v>15450.0</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>28551.0</v>
+        <v>36334.0</v>
       </c>
       <c r="B195" t="n">
-        <v>14547.0</v>
+        <v>15574.0</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>25704.0</v>
+        <v>37439.0</v>
       </c>
       <c r="B196" t="n">
-        <v>15183.0</v>
+        <v>15856.0</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>33724.0</v>
+        <v>32001.0</v>
       </c>
       <c r="B197" t="n">
-        <v>14805.0</v>
+        <v>16094.0</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>29592.0</v>
+        <v>29162.0</v>
       </c>
       <c r="B198" t="n">
-        <v>14216.0</v>
+        <v>16361.0</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>30174.0</v>
+        <v>30681.0</v>
       </c>
       <c r="B199" t="n">
-        <v>13878.0</v>
+        <v>15616.0</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>30965.0</v>
+        <v>31223.0</v>
       </c>
       <c r="B200" t="n">
-        <v>13246.0</v>
+        <v>15296.0</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>32634.0</v>
+        <v>31370.0</v>
       </c>
       <c r="B201" t="n">
-        <v>13917.0</v>
+        <v>15467.0</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>28472.0</v>
+        <v>35968.0</v>
       </c>
       <c r="B202" t="n">
-        <v>15155.0</v>
+        <v>15804.0</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>25549.0</v>
+        <v>36361.0</v>
       </c>
       <c r="B203" t="n">
-        <v>15335.0</v>
+        <v>15678.0</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>32461.0</v>
+        <v>30526.0</v>
       </c>
       <c r="B204" t="n">
-        <v>14817.0</v>
+        <v>15681.0</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>28741.0</v>
+        <v>27987.0</v>
       </c>
       <c r="B205" t="n">
-        <v>14257.0</v>
+        <v>15847.0</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>29362.0</v>
+        <v>28787.0</v>
       </c>
       <c r="B206" t="n">
-        <v>13848.0</v>
+        <v>14970.0</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>20925.0</v>
+        <v>32343.0</v>
       </c>
       <c r="B207" t="n">
-        <v>12796.0</v>
+        <v>14613.0</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>30186.0</v>
+        <v>29634.0</v>
       </c>
       <c r="B208" t="n">
-        <v>12820.0</v>
+        <v>14346.0</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>22454.0</v>
+        <v>28103.0</v>
       </c>
       <c r="B209" t="n">
-        <v>13240.0</v>
+        <v>14998.0</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>19963.0</v>
+        <v>27692.0</v>
       </c>
       <c r="B210" t="n">
-        <v>13561.0</v>
+        <v>14434.0</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>25857.0</v>
+        <v>26336.0</v>
       </c>
       <c r="B211" t="n">
-        <v>12213.0</v>
+        <v>13612.0</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>22459.0</v>
+        <v>23527.0</v>
       </c>
       <c r="B212" t="n">
-        <v>11200.0</v>
+        <v>13270.0</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>23124.0</v>
+        <v>24830.0</v>
       </c>
       <c r="B213" t="n">
-        <v>10763.0</v>
+        <v>12827.0</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>23674.0</v>
+        <v>25226.0</v>
       </c>
       <c r="B214" t="n">
-        <v>10603.0</v>
+        <v>12255.0</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>24632.0</v>
+        <v>25160.0</v>
       </c>
       <c r="B215" t="n">
-        <v>10751.0</v>
+        <v>12557.0</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>21484.0</v>
+        <v>28366.0</v>
       </c>
       <c r="B216" t="n">
-        <v>11200.0</v>
+        <v>12869.0</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>19362.0</v>
+        <v>28934.0</v>
       </c>
       <c r="B217" t="n">
-        <v>11644.0</v>
+        <v>12536.0</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>25037.0</v>
+        <v>24348.0</v>
       </c>
       <c r="B218" t="n">
-        <v>11179.0</v>
+        <v>12650.0</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>22409.0</v>
+        <v>22448.0</v>
       </c>
       <c r="B219" t="n">
-        <v>10802.0</v>
+        <v>12729.0</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>15886.0</v>
+        <v>24678.0</v>
       </c>
       <c r="B220" t="n">
-        <v>10526.0</v>
+        <v>11954.0</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>21955.0</v>
+        <v>22861.0</v>
       </c>
       <c r="B221" t="n">
-        <v>9456.0</v>
+        <v>11070.0</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>20039.0</v>
+        <v>20722.0</v>
       </c>
       <c r="B222" t="n">
-        <v>9394.0</v>
+        <v>11086.0</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>17285.0</v>
+        <v>22248.0</v>
       </c>
       <c r="B223" t="n">
-        <v>9953.0</v>
+        <v>11211.0</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>15081.0</v>
+        <v>21628.0</v>
       </c>
       <c r="B224" t="n">
-        <v>9612.0</v>
+        <v>10614.0</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>20588.0</v>
+        <v>20891.0</v>
       </c>
       <c r="B225" t="n">
-        <v>9075.0</v>
+        <v>10211.0</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>18608.0</v>
+        <v>18870.0</v>
       </c>
       <c r="B226" t="n">
-        <v>8925.0</v>
+        <v>10293.0</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>19077.0</v>
+        <v>19559.0</v>
       </c>
       <c r="B227" t="n">
-        <v>8895.0</v>
+        <v>9782.0</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>18737.0</v>
+        <v>19856.0</v>
       </c>
       <c r="B228" t="n">
-        <v>8370.0</v>
+        <v>9602.0</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>20093.0</v>
+        <v>19670.0</v>
       </c>
       <c r="B229" t="n">
-        <v>8201.0</v>
+        <v>9602.0</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>17009.0</v>
+        <v>22003.0</v>
       </c>
       <c r="B230" t="n">
-        <v>9051.0</v>
+        <v>9743.0</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>15555.0</v>
+        <v>22519.0</v>
       </c>
       <c r="B231" t="n">
-        <v>9254.0</v>
+        <v>9793.0</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>20698.0</v>
+        <v>19567.0</v>
       </c>
       <c r="B232" t="n">
-        <v>8944.0</v>
+        <v>9730.0</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>18949.0</v>
+        <v>18038.0</v>
       </c>
       <c r="B233" t="n">
-        <v>8728.0</v>
+        <v>9695.0</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>15230.0</v>
+        <v>14107.0</v>
       </c>
       <c r="B234" t="n">
-        <v>8563.0</v>
+        <v>9165.0</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>15053.0</v>
+        <v>13645.0</v>
       </c>
       <c r="B235" t="n">
-        <v>8024.0</v>
+        <v>8645.0</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>14892.0</v>
+        <v>12855.0</v>
       </c>
       <c r="B236" t="n">
-        <v>7831.0</v>
+        <v>8167.0</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>11916.0</v>
+        <v>17795.0</v>
       </c>
       <c r="B237" t="n">
-        <v>7996.0</v>
+        <v>7769.0</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>11822.0</v>
+        <v>15311.0</v>
       </c>
       <c r="B238" t="n">
-        <v>7999.0</v>
+        <v>7031.0</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>12795.0</v>
+        <v>10642.0</v>
       </c>
       <c r="B239" t="n">
-        <v>7151.0</v>
+        <v>6822.0</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>10945.0</v>
+        <v>9538.0</v>
       </c>
       <c r="B240" t="n">
-        <v>6494.0</v>
+        <v>6227.0</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>10076.0</v>
+        <v>9061.0</v>
       </c>
       <c r="B241" t="n">
-        <v>5682.0</v>
+        <v>5611.0</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>9701.0</v>
+        <v>8803.0</v>
       </c>
       <c r="B242" t="n">
-        <v>5394.0</v>
+        <v>5265.0</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>9676.0</v>
+        <v>8574.0</v>
       </c>
       <c r="B243" t="n">
-        <v>5161.0</v>
+        <v>5193.0</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>8253.0</v>
+        <v>10633.0</v>
       </c>
       <c r="B244" t="n">
-        <v>5211.0</v>
+        <v>4709.0</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>7891.0</v>
+        <v>9749.0</v>
       </c>
       <c r="B245" t="n">
-        <v>5232.0</v>
+        <v>4440.0</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>10559.0</v>
+        <v>9143.0</v>
       </c>
       <c r="B246" t="n">
-        <v>4711.0</v>
+        <v>4267.0</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>9612.0</v>
+        <v>8420.0</v>
       </c>
       <c r="B247" t="n">
-        <v>4393.0</v>
+        <v>4013.0</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>9426.0</v>
+        <v>8825.0</v>
       </c>
       <c r="B248" t="n">
-        <v>4289.0</v>
+        <v>4020.0</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>9858.0</v>
+        <v>8898.0</v>
       </c>
       <c r="B249" t="n">
-        <v>4129.0</v>
+        <v>3926.0</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>10355.0</v>
+        <v>9362.0</v>
       </c>
       <c r="B250" t="n">
-        <v>4280.0</v>
+        <v>4182.0</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>8564.0</v>
+        <v>10553.0</v>
       </c>
       <c r="B251" t="n">
-        <v>4459.0</v>
+        <v>4251.0</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>8276.0</v>
+        <v>9970.0</v>
       </c>
       <c r="B252" t="n">
-        <v>4834.0</v>
+        <v>4196.0</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>11681.0</v>
+        <v>10285.0</v>
       </c>
       <c r="B253" t="n">
-        <v>4713.0</v>
+        <v>4322.0</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>10483.0</v>
+        <v>9536.0</v>
       </c>
       <c r="B254" t="n">
-        <v>4557.0</v>
+        <v>4289.0</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>10639.0</v>
+        <v>9568.0</v>
       </c>
       <c r="B255" t="n">
-        <v>4532.0</v>
+        <v>4255.0</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>10893.0</v>
+        <v>10071.0</v>
       </c>
       <c r="B256" t="n">
-        <v>4372.0</v>
+        <v>4445.0</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>11186.0</v>
+        <v>10250.0</v>
       </c>
       <c r="B257" t="n">
-        <v>4519.0</v>
+        <v>4465.0</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>9629.0</v>
+        <v>11266.0</v>
       </c>
       <c r="B258" t="n">
-        <v>4830.0</v>
+        <v>4595.0</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>8850.0</v>
+        <v>10986.0</v>
       </c>
       <c r="B259" t="n">
-        <v>5203.0</v>
+        <v>4623.0</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>12433.0</v>
+        <v>11065.0</v>
       </c>
       <c r="B260" t="n">
-        <v>5232.0</v>
+        <v>4729.0</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>11393.0</v>
+        <v>10322.0</v>
       </c>
       <c r="B261" t="n">
-        <v>5062.0</v>
+        <v>4749.0</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>11477.0</v>
+        <v>10477.0</v>
       </c>
       <c r="B262" t="n">
-        <v>4805.0</v>
+        <v>4856.0</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>11294.0</v>
+        <v>10842.0</v>
       </c>
       <c r="B263" t="n">
-        <v>4909.0</v>
+        <v>4689.0</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>12201.0</v>
+        <v>10771.0</v>
       </c>
       <c r="B264" t="n">
-        <v>4854.0</v>
+        <v>4907.0</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>10395.0</v>
+        <v>11818.0</v>
       </c>
       <c r="B265" t="n">
-        <v>5103.0</v>
+        <v>4871.0</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>9178.0</v>
+        <v>12009.0</v>
       </c>
       <c r="B266" t="n">
-        <v>5513.0</v>
+        <v>5049.0</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>13141.0</v>
+        <v>11894.0</v>
       </c>
       <c r="B267" t="n">
-        <v>5531.0</v>
+        <v>5074.0</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>12199.0</v>
+        <v>11039.0</v>
       </c>
       <c r="B268" t="n">
-        <v>5332.0</v>
+        <v>5096.0</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>11781.0</v>
+        <v>11036.0</v>
       </c>
       <c r="B269" t="n">
-        <v>5154.0</v>
+        <v>5019.0</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>11900.0</v>
+        <v>11111.0</v>
       </c>
       <c r="B270" t="n">
-        <v>5177.0</v>
+        <v>5044.0</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>12517.0</v>
+        <v>11673.0</v>
       </c>
       <c r="B271" t="n">
-        <v>5063.0</v>
+        <v>5059.0</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>10662.0</v>
+        <v>12429.0</v>
       </c>
       <c r="B272" t="n">
-        <v>5421.0</v>
+        <v>5217.0</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>9685.0</v>
+        <v>12175.0</v>
       </c>
       <c r="B273" t="n">
-        <v>5711.0</v>
+        <v>5278.0</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>9388.0</v>
+        <v>11503.0</v>
       </c>
       <c r="B274" t="n">
-        <v>5828.0</v>
+        <v>5390.0</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>12343.0</v>
+        <v>11439.0</v>
       </c>
       <c r="B275" t="n">
-        <v>5512.0</v>
+        <v>5198.0</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>10753.0</v>
+        <v>10652.0</v>
       </c>
       <c r="B276" t="n">
-        <v>5045.0</v>
+        <v>4988.0</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>10304.0</v>
+        <v>10696.0</v>
       </c>
       <c r="B277" t="n">
-        <v>4903.0</v>
+        <v>4968.0</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>10667.0</v>
+        <v>11258.0</v>
       </c>
       <c r="B278" t="n">
-        <v>4843.0</v>
+        <v>4909.0</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>9051.0</v>
+        <v>11227.0</v>
       </c>
       <c r="B279" t="n">
-        <v>4752.0</v>
+        <v>4966.0</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>7985.0</v>
+        <v>11140.0</v>
       </c>
       <c r="B280" t="n">
-        <v>4825.0</v>
+        <v>5132.0</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>11679.0</v>
+        <v>12140.0</v>
       </c>
       <c r="B281" t="n">
-        <v>5123.0</v>
+        <v>5075.0</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>7452.0</v>
+        <v>10200.0</v>
       </c>
       <c r="B282" t="n">
-        <v>4872.0</v>
+        <v>4916.0</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>10640.0</v>
+        <v>11464.0</v>
       </c>
       <c r="B283" t="n">
-        <v>4761.0</v>
+        <v>5085.0</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>10098.0</v>
+        <v>10756.0</v>
       </c>
       <c r="B284" t="n">
-        <v>4474.0</v>
+        <v>4938.0</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>10147.0</v>
+        <v>10689.0</v>
       </c>
       <c r="B285" t="n">
-        <v>4118.0</v>
+        <v>4969.0</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>8544.0</v>
+        <v>10997.0</v>
       </c>
       <c r="B286" t="n">
-        <v>4438.0</v>
+        <v>4882.0</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>7535.0</v>
+        <v>10982.0</v>
       </c>
       <c r="B287" t="n">
-        <v>4420.0</v>
+        <v>4968.0</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>10988.0</v>
+        <v>11653.0</v>
       </c>
       <c r="B288" t="n">
-        <v>4603.0</v>
+        <v>4908.0</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>9963.0</v>
+        <v>10534.0</v>
       </c>
       <c r="B289" t="n">
-        <v>4365.0</v>
+        <v>4848.0</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>10358.0</v>
+        <v>10967.0</v>
       </c>
       <c r="B290" t="n">
-        <v>4469.0</v>
+        <v>5018.0</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>10517.0</v>
+        <v>11182.0</v>
       </c>
       <c r="B291" t="n">
-        <v>4569.0</v>
+        <v>4849.0</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>11026.0</v>
+        <v>11443.0</v>
       </c>
       <c r="B292" t="n">
-        <v>4567.0</v>
+        <v>4895.0</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>9206.0</v>
+        <v>12127.0</v>
       </c>
       <c r="B293" t="n">
-        <v>4484.0</v>
+        <v>4970.0</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>8317.0</v>
+        <v>12141.0</v>
       </c>
       <c r="B294" t="n">
-        <v>5030.0</v>
+        <v>5202.0</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
-        <v>11739.0</v>
+        <v>12308.0</v>
       </c>
       <c r="B295" t="n">
-        <v>4993.0</v>
+        <v>5217.0</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>10448.0</v>
+        <v>11431.0</v>
       </c>
       <c r="B296" t="n">
-        <v>4696.0</v>
+        <v>5191.0</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>10502.0</v>
+        <v>11484.0</v>
       </c>
       <c r="B297" t="n">
-        <v>4698.0</v>
+        <v>5393.0</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
-        <v>10672.0</v>
+        <v>11729.0</v>
       </c>
       <c r="B298" t="n">
-        <v>4675.0</v>
+        <v>5156.0</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
-        <v>11212.0</v>
+        <v>11986.0</v>
       </c>
       <c r="B299" t="n">
-        <v>4634.0</v>
+        <v>5213.0</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>9474.0</v>
+        <v>12745.0</v>
       </c>
       <c r="B300" t="n">
-        <v>4722.0</v>
+        <v>5221.0</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>8410.0</v>
+        <v>13027.0</v>
       </c>
       <c r="B301" t="n">
-        <v>5132.0</v>
+        <v>5338.0</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="n">
-        <v>12092.0</v>
+        <v>12500.0</v>
       </c>
       <c r="B302" t="n">
-        <v>4915.0</v>
+        <v>5532.0</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
-        <v>10870.0</v>
+        <v>11603.0</v>
       </c>
       <c r="B303" t="n">
-        <v>5007.0</v>
+        <v>5631.0</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
-        <v>10648.0</v>
+        <v>11785.0</v>
       </c>
       <c r="B304" t="n">
-        <v>4767.0</v>
+        <v>5575.0</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="n">
-        <v>9227.0</v>
+        <v>9336.0</v>
       </c>
       <c r="B305" t="n">
-        <v>4862.0</v>
+        <v>5348.0</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="n">
-        <v>9327.0</v>
+        <v>9301.0</v>
       </c>
       <c r="B306" t="n">
-        <v>4789.0</v>
+        <v>5229.0</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="n">
-        <v>7481.0</v>
+        <v>12508.0</v>
       </c>
       <c r="B307" t="n">
-        <v>4585.0</v>
+        <v>5083.0</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="n">
-        <v>7556.0</v>
+        <v>11033.0</v>
       </c>
       <c r="B308" t="n">
-        <v>4759.0</v>
+        <v>4897.0</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="n">
-        <v>8682.0</v>
+        <v>8391.0</v>
       </c>
       <c r="B309" t="n">
-        <v>4529.0</v>
+        <v>4638.0</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
-        <v>7436.0</v>
+        <v>7811.0</v>
       </c>
       <c r="B310" t="n">
-        <v>4011.0</v>
+        <v>4764.0</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="n">
-        <v>7336.0</v>
+        <v>7684.0</v>
       </c>
       <c r="B311" t="n">
-        <v>3889.0</v>
+        <v>4414.0</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="n">
-        <v>7025.0</v>
+        <v>7398.0</v>
       </c>
       <c r="B312" t="n">
-        <v>3467.0</v>
+        <v>3909.0</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="n">
-        <v>7181.0</v>
+        <v>7344.0</v>
       </c>
       <c r="B313" t="n">
-        <v>3323.0</v>
+        <v>3654.0</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="n">
-        <v>5390.0</v>
+        <v>8685.0</v>
       </c>
       <c r="B314" t="n">
-        <v>3360.0</v>
+        <v>3540.0</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="n">
-        <v>5826.0</v>
+        <v>8013.0</v>
       </c>
       <c r="B315" t="n">
-        <v>3515.0</v>
+        <v>3500.0</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="n">
-        <v>5346.0</v>
+        <v>7038.0</v>
       </c>
       <c r="B316" t="n">
-        <v>3379.0</v>
+        <v>3294.0</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="n">
-        <v>6473.0</v>
+        <v>6124.0</v>
       </c>
       <c r="B317" t="n">
-        <v>3087.0</v>
+        <v>3306.0</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="n">
-        <v>5653.0</v>
+        <v>5691.0</v>
       </c>
       <c r="B318" t="n">
-        <v>2860.0</v>
+        <v>3275.0</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="n">
-        <v>5523.0</v>
+        <v>5492.0</v>
       </c>
       <c r="B319" t="n">
-        <v>2720.0</v>
+        <v>2919.0</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="n">
-        <v>5723.0</v>
+        <v>5628.0</v>
       </c>
       <c r="B320" t="n">
-        <v>2554.0</v>
+        <v>2808.0</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="n">
-        <v>4398.0</v>
+        <v>5969.0</v>
       </c>
       <c r="B321" t="n">
-        <v>2498.0</v>
+        <v>2614.0</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="n">
-        <v>4842.0</v>
+        <v>5881.0</v>
       </c>
       <c r="B322" t="n">
-        <v>2581.0</v>
+        <v>2608.0</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="n">
-        <v>5865.0</v>
+        <v>5510.0</v>
       </c>
       <c r="B323" t="n">
-        <v>2707.0</v>
+        <v>2578.0</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="n">
-        <v>5213.0</v>
+        <v>5106.0</v>
       </c>
       <c r="B324" t="n">
-        <v>2511.0</v>
+        <v>2507.0</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="n">
-        <v>5270.0</v>
+        <v>5164.0</v>
       </c>
       <c r="B325" t="n">
-        <v>2475.0</v>
+        <v>2436.0</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="n">
-        <v>5532.0</v>
+        <v>5103.0</v>
       </c>
       <c r="B326" t="n">
-        <v>2494.0</v>
+        <v>2235.0</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="n">
-        <v>5405.0</v>
+        <v>5193.0</v>
       </c>
       <c r="B327" t="n">
-        <v>2288.0</v>
+        <v>2260.0</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="n">
-        <v>4404.0</v>
+        <v>5943.0</v>
       </c>
       <c r="B328" t="n">
-        <v>2308.0</v>
+        <v>2249.0</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="n">
-        <v>4677.0</v>
+        <v>5645.0</v>
       </c>
       <c r="B329" t="n">
-        <v>2419.0</v>
+        <v>2269.0</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="n">
-        <v>5601.0</v>
+        <v>5152.0</v>
       </c>
       <c r="B330" t="n">
-        <v>2447.0</v>
+        <v>2374.0</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="n">
-        <v>5137.0</v>
+        <v>4836.0</v>
       </c>
       <c r="B331" t="n">
-        <v>2330.0</v>
+        <v>2355.0</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="n">
-        <v>5162.0</v>
+        <v>4937.0</v>
       </c>
       <c r="B332" t="n">
-        <v>2290.0</v>
+        <v>2430.0</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="n">
-        <v>5316.0</v>
+        <v>4775.0</v>
       </c>
       <c r="B333" t="n">
-        <v>2371.0</v>
+        <v>2206.0</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="n">
-        <v>5415.0</v>
+        <v>4839.0</v>
       </c>
       <c r="B334" t="n">
-        <v>2226.0</v>
+        <v>2051.0</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="n">
-        <v>4578.0</v>
+        <v>5646.0</v>
       </c>
       <c r="B335" t="n">
-        <v>2373.0</v>
+        <v>2066.0</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="n">
-        <v>4488.0</v>
+        <v>5416.0</v>
       </c>
       <c r="B336" t="n">
-        <v>2334.0</v>
+        <v>2108.0</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="n">
-        <v>4387.0</v>
+        <v>3844.0</v>
       </c>
       <c r="B337" t="n">
-        <v>2392.0</v>
+        <v>2122.0</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="n">
-        <v>4033.0</v>
+        <v>3587.0</v>
       </c>
       <c r="B338" t="n">
-        <v>2364.0</v>
+        <v>2186.0</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="n">
-        <v>3734.0</v>
+        <v>3326.0</v>
       </c>
       <c r="B339" t="n">
-        <v>2140.0</v>
+        <v>2026.0</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="n">
-        <v>3547.0</v>
+        <v>3132.0</v>
       </c>
       <c r="B340" t="n">
-        <v>1996.0</v>
+        <v>1799.0</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="n">
-        <v>3313.0</v>
+        <v>3017.0</v>
       </c>
       <c r="B341" t="n">
-        <v>1840.0</v>
+        <v>1562.0</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="n">
-        <v>3158.0</v>
+        <v>3615.0</v>
       </c>
       <c r="B342" t="n">
-        <v>1654.0</v>
+        <v>1488.0</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="n">
-        <v>2978.0</v>
+        <v>3154.0</v>
       </c>
       <c r="B343" t="n">
-        <v>1559.0</v>
+        <v>1306.0</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="n">
-        <v>2770.0</v>
+        <v>2647.0</v>
       </c>
       <c r="B344" t="n">
-        <v>1501.0</v>
+        <v>1286.0</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="n">
-        <v>2782.0</v>
+        <v>2520.0</v>
       </c>
       <c r="B345" t="n">
-        <v>1454.0</v>
+        <v>1313.0</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="n">
-        <v>2777.0</v>
+        <v>2412.0</v>
       </c>
       <c r="B346" t="n">
-        <v>1351.0</v>
+        <v>1216.0</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="n">
-        <v>2641.0</v>
+        <v>2463.0</v>
       </c>
       <c r="B347" t="n">
-        <v>1308.0</v>
+        <v>1103.0</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="n">
-        <v>2685.0</v>
+        <v>2373.0</v>
       </c>
       <c r="B348" t="n">
-        <v>1237.0</v>
+        <v>1116.0</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="n">
-        <v>2696.0</v>
+        <v>2758.0</v>
       </c>
       <c r="B349" t="n">
-        <v>1232.0</v>
+        <v>1044.0</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="n">
-        <v>2506.0</v>
+        <v>2653.0</v>
       </c>
       <c r="B350" t="n">
-        <v>1204.0</v>
+        <v>995.0</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="n">
-        <v>2579.0</v>
+        <v>2184.0</v>
       </c>
       <c r="B351" t="n">
-        <v>1149.0</v>
+        <v>1009.0</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="n">
-        <v>2484.0</v>
+        <v>2166.0</v>
       </c>
       <c r="B352" t="n">
-        <v>1172.0</v>
+        <v>968.0</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="n">
-        <v>2530.0</v>
+        <v>2130.0</v>
       </c>
       <c r="B353" t="n">
-        <v>1027.0</v>
+        <v>983.0</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="n">
-        <v>2553.0</v>
+        <v>2081.0</v>
       </c>
       <c r="B354" t="n">
-        <v>1107.0</v>
+        <v>907.0</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="n">
-        <v>2466.0</v>
+        <v>2175.0</v>
       </c>
       <c r="B355" t="n">
-        <v>1016.0</v>
+        <v>909.0</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="n">
-        <v>2486.0</v>
+        <v>2464.0</v>
       </c>
       <c r="B356" t="n">
-        <v>1114.0</v>
+        <v>887.0</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="n">
-        <v>2518.0</v>
+        <v>2387.0</v>
       </c>
       <c r="B357" t="n">
-        <v>1013.0</v>
+        <v>837.0</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="n">
-        <v>2486.0</v>
+        <v>2114.0</v>
       </c>
       <c r="B358" t="n">
-        <v>1118.0</v>
+        <v>911.0</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="n">
-        <v>2480.0</v>
+        <v>2083.0</v>
       </c>
       <c r="B359" t="n">
-        <v>1069.0</v>
+        <v>895.0</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="n">
-        <v>2442.0</v>
+        <v>2145.0</v>
       </c>
       <c r="B360" t="n">
-        <v>1031.0</v>
+        <v>877.0</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="n">
-        <v>2340.0</v>
+        <v>2066.0</v>
       </c>
       <c r="B361" t="n">
-        <v>1066.0</v>
+        <v>750.0</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="n">
-        <v>2433.0</v>
+        <v>2016.0</v>
       </c>
       <c r="B362" t="n">
-        <v>1080.0</v>
+        <v>805.0</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="n">
-        <v>2446.0</v>
+        <v>2236.0</v>
       </c>
       <c r="B363" t="n">
-        <v>978.0</v>
+        <v>905.0</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="n">
-        <v>2451.0</v>
+        <v>2041.0</v>
       </c>
       <c r="B364" t="n">
-        <v>972.0</v>
+        <v>949.0</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="n">
-        <v>2465.0</v>
+        <v>1829.0</v>
       </c>
       <c r="B365" t="n">
-        <v>1050.0</v>
+        <v>854.0</v>
       </c>
     </row>
   </sheetData>
